--- a/mbs-perturbation/chain/welm/chain_welm_tanh_results.xlsx
+++ b/mbs-perturbation/chain/welm/chain_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.92018779342723</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5413043478260869</v>
+        <v>0.7836134453781513</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9786324786324786</v>
+        <v>0.9389671361502347</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.373015873015873</v>
+        <v>0.6069651741293531</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9783549783549784</v>
+        <v>0.8177083333333333</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6565217391304348</v>
+        <v>0.8633663366336634</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.656113537117904</v>
+        <v>0.8814935064935064</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9845823704192803</v>
+        <v>0.9293781557268137</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6410620950890554</v>
+        <v>0.7906293591936014</v>
       </c>
     </row>
   </sheetData>
